--- a/biology/Zoologie/Alapi_tabac/Alapi_tabac.xlsx
+++ b/biology/Zoologie/Alapi_tabac/Alapi_tabac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sipia laemosticta
-L'Alapi tabac (Sipia laemosticta) est une espèce de passereaux de la famille des Thamnophilidae[2]. Il vit du sud de l'Amérique centrale jusqu'en Colombie.
+L'Alapi tabac (Sipia laemosticta) est une espèce de passereaux de la famille des Thamnophilidae. Il vit du sud de l'Amérique centrale jusqu'en Colombie.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 15 cm de longueur. Il présente un plumage d'ensemble brun sombre avec la tête et les épaules grises. Ces dernières sont marquées de petites taches blanches. Les iris sont rouges.
 			Planche zoologique par John Gerrard Keulemans, 1902
@@ -545,9 +559,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau se rencontre au Costa Rica, au Panama et dans l'extrême nord-ouest de la Colombie[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau se rencontre au Costa Rica, au Panama et dans l'extrême nord-ouest de la Colombie.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple la forêt tropicale humide, aussi bien en plaine qu'en montagne.
 </t>
@@ -607,9 +625,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2018, l'espèce a été rattachée au genre Sipia par le Congrès ornithologique international[2], toutefois certaines références[4],[5],[6],[7],[8], paramètre de Bioref « uBIO » non reconnu ,[9] la rattachent toujours au genre Myrmeciza.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2018, l'espèce a été rattachée au genre Sipia par le Congrès ornithologique international, toutefois certaines références paramètre de Bioref « uBIO » non reconnu , la rattachent toujours au genre Myrmeciza.
 </t>
         </is>
       </c>
